--- a/analysis/Pintle Test 01-19-2019/00 Pintle Data Analysis 01-19-2019.xlsx
+++ b/analysis/Pintle Test 01-19-2019/00 Pintle Data Analysis 01-19-2019.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB1A9CF-7633-4A88-BAC9-1D123143C68B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40471A4C-69F5-4092-AEF9-ABB25C8341B5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="1020" windowWidth="8835" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Summary" sheetId="1" r:id="rId1"/>
@@ -2970,8 +2970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
